--- a/yokai_inventory_scraper/20250818-在那裡-每日商品補貨明細表.xlsx
+++ b/yokai_inventory_scraper/20250818-在那裡-每日商品補貨明細表.xlsx
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="H2" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="7" t="n"/>
       <c r="J2" s="7" t="n"/>
@@ -953,27 +953,17 @@
       </c>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>緹魚鮮蝦青醬松子義大利麵</t>
+          <t>一風堂博多とんこつラーメン</t>
         </is>
       </c>
       <c r="C4" s="39" t="n"/>
       <c r="D4" s="21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
-      <c r="E4" s="24" t="inlineStr">
-        <is>
-          <t>捷運西門站B1-497 RIGHT</t>
-        </is>
-      </c>
-      <c r="F4" s="25" t="inlineStr">
-        <is>
-          <t>一風堂橫濱家系拉麵</t>
-        </is>
-      </c>
+      <c r="E4" s="24" t="n"/>
+      <c r="F4" s="25" t="n"/>
       <c r="G4" s="39" t="n"/>
-      <c r="H4" s="21" t="n">
-        <v>2</v>
-      </c>
+      <c r="H4" s="21" t="n"/>
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
       <c r="K4" s="7" t="n"/>
@@ -997,23 +987,17 @@
       <c r="A5" s="40" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
-          <t>燕三条 Se-Abura</t>
+          <t>小卷米粉</t>
         </is>
       </c>
       <c r="C5" s="39" t="n"/>
       <c r="D5" s="21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="40" t="n"/>
-      <c r="F5" s="25" t="inlineStr">
-        <is>
-          <t>松露蔬食義大利麵</t>
-        </is>
-      </c>
+      <c r="F5" s="25" t="n"/>
       <c r="G5" s="39" t="n"/>
-      <c r="H5" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" s="21" t="n"/>
       <c r="I5" s="7" t="n"/>
       <c r="J5" s="7" t="n"/>
       <c r="K5" s="7" t="n"/>
@@ -1037,23 +1021,17 @@
       <c r="A6" s="40" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Plant-Base_Ramen</t>
+          <t>雙醬鮭魚筆尖麵</t>
         </is>
       </c>
       <c r="C6" s="39" t="n"/>
       <c r="D6" s="21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="40" t="n"/>
-      <c r="F6" s="25" t="inlineStr">
-        <is>
-          <t>雙醬魚子義大利麵</t>
-        </is>
-      </c>
+      <c r="F6" s="25" t="n"/>
       <c r="G6" s="39" t="n"/>
-      <c r="H6" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H6" s="21" t="n"/>
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
       <c r="K6" s="7" t="n"/>
@@ -1077,12 +1055,12 @@
       <c r="A7" s="40" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Spicy _TanTan</t>
+          <t>緹魚鮮蝦青醬松子義大利麵</t>
         </is>
       </c>
       <c r="C7" s="39" t="n"/>
       <c r="D7" s="21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="40" t="n"/>
       <c r="F7" s="25" t="n"/>
@@ -1111,12 +1089,12 @@
       <c r="A8" s="40" t="n"/>
       <c r="B8" s="25" t="inlineStr">
         <is>
-          <t>一風堂橫濱家系拉麵</t>
+          <t>IPPUDO_Plant-Base_Ramen</t>
         </is>
       </c>
       <c r="C8" s="39" t="n"/>
       <c r="D8" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="40" t="n"/>
       <c r="F8" s="25" t="n"/>
@@ -1145,12 +1123,12 @@
       <c r="A9" s="40" t="n"/>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>松露蔬食義大利麵</t>
+          <t>燕三条 Se-Abura</t>
         </is>
       </c>
       <c r="C9" s="39" t="n"/>
       <c r="D9" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="40" t="n"/>
       <c r="F9" s="25" t="n"/>
@@ -1179,7 +1157,7 @@
       <c r="A10" s="40" t="n"/>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>雙醬魚子義大利麵</t>
+          <t>Ippudo Spicy Plant</t>
         </is>
       </c>
       <c r="C10" s="39" t="n"/>
@@ -1259,16 +1237,15 @@
           <t>機內庫存</t>
         </is>
       </c>
-      <c r="F12" s="25" t="n">
-        <v>45</v>
-      </c>
+      <c r="F12" s="25" t="n"/>
       <c r="G12" s="25" t="inlineStr">
         <is>
           <t>補貨總數</t>
         </is>
       </c>
-      <c r="H12" s="21" t="n">
-        <v>4</v>
+      <c r="H12" s="21">
+        <f>50-F12+SUM(H4:H11)</f>
+        <v/>
       </c>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>

--- a/yokai_inventory_scraper/20250818-在那裡-每日商品補貨明細表.xlsx
+++ b/yokai_inventory_scraper/20250818-在那裡-每日商品補貨明細表.xlsx
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="H2" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7" t="n"/>
       <c r="J2" s="7" t="n"/>
@@ -948,22 +948,32 @@
     <row r="4" ht="15" customHeight="1" s="32">
       <c r="A4" s="24" t="inlineStr">
         <is>
-          <t>台北天文館 左邊-683</t>
+          <t>台北天文館 右邊-682</t>
         </is>
       </c>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>一風堂博多とんこつラーメン</t>
+          <t>雙醬鮭魚筆尖麵</t>
         </is>
       </c>
       <c r="C4" s="39" t="n"/>
       <c r="D4" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>台北天文館 左邊-683</t>
+        </is>
+      </c>
+      <c r="F4" s="25" t="inlineStr">
+        <is>
+          <t>一風堂博多とんこつラーメン</t>
+        </is>
+      </c>
+      <c r="G4" s="39" t="n"/>
+      <c r="H4" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="24" t="n"/>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="21" t="n"/>
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
       <c r="K4" s="7" t="n"/>
@@ -995,9 +1005,15 @@
         <v>4</v>
       </c>
       <c r="E5" s="40" t="n"/>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="25" t="inlineStr">
+        <is>
+          <t>小卷米粉</t>
+        </is>
+      </c>
       <c r="G5" s="39" t="n"/>
-      <c r="H5" s="21" t="n"/>
+      <c r="H5" s="21" t="n">
+        <v>4</v>
+      </c>
       <c r="I5" s="7" t="n"/>
       <c r="J5" s="7" t="n"/>
       <c r="K5" s="7" t="n"/>
@@ -1021,7 +1037,7 @@
       <c r="A6" s="40" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
-          <t>雙醬鮭魚筆尖麵</t>
+          <t>緹魚鮮蝦青醬松子義大利麵</t>
         </is>
       </c>
       <c r="C6" s="39" t="n"/>
@@ -1029,9 +1045,15 @@
         <v>4</v>
       </c>
       <c r="E6" s="40" t="n"/>
-      <c r="F6" s="25" t="n"/>
+      <c r="F6" s="25" t="inlineStr">
+        <is>
+          <t>雙醬鮭魚筆尖麵</t>
+        </is>
+      </c>
       <c r="G6" s="39" t="n"/>
-      <c r="H6" s="21" t="n"/>
+      <c r="H6" s="21" t="n">
+        <v>4</v>
+      </c>
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
       <c r="K6" s="7" t="n"/>
@@ -1055,7 +1077,7 @@
       <c r="A7" s="40" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
-          <t>緹魚鮮蝦青醬松子義大利麵</t>
+          <t>松露蔬食義大利麵</t>
         </is>
       </c>
       <c r="C7" s="39" t="n"/>
@@ -1063,9 +1085,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="40" t="n"/>
-      <c r="F7" s="25" t="n"/>
+      <c r="F7" s="25" t="inlineStr">
+        <is>
+          <t>緹魚鮮蝦青醬松子義大利麵</t>
+        </is>
+      </c>
       <c r="G7" s="39" t="n"/>
-      <c r="H7" s="21" t="n"/>
+      <c r="H7" s="21" t="n">
+        <v>3</v>
+      </c>
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
       <c r="K7" s="7" t="n"/>
@@ -1097,9 +1125,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="40" t="n"/>
-      <c r="F8" s="25" t="n"/>
+      <c r="F8" s="25" t="inlineStr">
+        <is>
+          <t>IPPUDO_Plant-Base_Ramen</t>
+        </is>
+      </c>
       <c r="G8" s="39" t="n"/>
-      <c r="H8" s="21" t="n"/>
+      <c r="H8" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
@@ -1123,7 +1157,7 @@
       <c r="A9" s="40" t="n"/>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>燕三条 Se-Abura</t>
+          <t>一風堂博多とんこつラーメン</t>
         </is>
       </c>
       <c r="C9" s="39" t="n"/>
@@ -1131,9 +1165,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="40" t="n"/>
-      <c r="F9" s="25" t="n"/>
+      <c r="F9" s="25" t="inlineStr">
+        <is>
+          <t>燕三条 Se-Abura</t>
+        </is>
+      </c>
       <c r="G9" s="39" t="n"/>
-      <c r="H9" s="21" t="n"/>
+      <c r="H9" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
@@ -1157,17 +1197,23 @@
       <c r="A10" s="40" t="n"/>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>Ippudo Spicy Plant</t>
+          <t>雙醬魚子義大利麵</t>
         </is>
       </c>
       <c r="C10" s="39" t="n"/>
       <c r="D10" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="40" t="n"/>
+      <c r="F10" s="25" t="inlineStr">
+        <is>
+          <t>Ippudo Spicy Plant</t>
+        </is>
+      </c>
+      <c r="G10" s="39" t="n"/>
+      <c r="H10" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="40" t="n"/>
-      <c r="F10" s="25" t="n"/>
-      <c r="G10" s="39" t="n"/>
-      <c r="H10" s="21" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
       <c r="K10" s="7" t="n"/>
@@ -1222,7 +1268,7 @@
         </is>
       </c>
       <c r="B12" s="25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="25" t="inlineStr">
         <is>
@@ -1230,22 +1276,23 @@
         </is>
       </c>
       <c r="D12" s="21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="24" t="inlineStr">
         <is>
           <t>機內庫存</t>
         </is>
       </c>
-      <c r="F12" s="25" t="n"/>
+      <c r="F12" s="25" t="n">
+        <v>24</v>
+      </c>
       <c r="G12" s="25" t="inlineStr">
         <is>
           <t>補貨總數</t>
         </is>
       </c>
-      <c r="H12" s="21">
-        <f>50-F12+SUM(H4:H11)</f>
-        <v/>
+      <c r="H12" s="21" t="n">
+        <v>26</v>
       </c>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
